--- a/t12_segCAMs/outputs/CAMwordlists/CAMwordlist_overall.xlsx
+++ b/t12_segCAMs/outputs/CAMwordlists/CAMwordlist_overall.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">group.y</t>
   </si>
   <si>
-    <t xml:space="preserve">raw_diff</t>
+    <t xml:space="preserve">percent_diff</t>
   </si>
   <si>
     <t xml:space="preserve">mean_valence_diff</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">environmental consciousness</t>
   </si>
   <si>
-    <t xml:space="preserve">environmental damaging behavior </t>
+    <t xml:space="preserve">environmental damaging behavior</t>
   </si>
   <si>
     <t xml:space="preserve">environmental friendly behavior</t>
@@ -629,7 +629,7 @@
         <v>19</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4.02</v>
       </c>
       <c r="Q2" t="n">
         <v>1.23076923076923</v>
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.971295790049207</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>20.56</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0222222222222224</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>15.07</v>
       </c>
       <c r="Q6" t="n">
         <v>0.22742474916388</v>
@@ -890,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>8.56</v>
       </c>
       <c r="Q7" t="n">
         <v>0.333333333333333</v>
@@ -943,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>6.81</v>
       </c>
       <c r="Q8" t="n">
         <v>0.194425087108014</v>
@@ -996,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.57142857142857</v>
@@ -1049,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>30.02</v>
       </c>
       <c r="Q10" t="n">
         <v>0.311368209255533</v>
@@ -1102,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>11.07</v>
       </c>
       <c r="Q11" t="n">
         <v>0.422459893048128</v>
@@ -1155,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>8.01</v>
       </c>
       <c r="Q12" t="n">
         <v>0.235087719298246</v>
@@ -1208,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="P13" t="n">
-        <v>9</v>
+        <v>16.24</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0595238095238095</v>
@@ -1261,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="P14" t="n">
-        <v>23</v>
+        <v>41.11</v>
       </c>
       <c r="Q14" t="n">
         <v>0.487441130298273</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>6.84</v>
       </c>
       <c r="Q15" t="n">
         <v>0.816666666666666</v>
@@ -1367,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2.27</v>
       </c>
       <c r="Q16" t="n">
         <v>0.607142857142857</v>
@@ -1420,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>5.41</v>
       </c>
       <c r="Q17" t="n">
         <v>3.35714285714286</v>
@@ -1473,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>12</v>
+        <v>20.91</v>
       </c>
       <c r="Q18" t="n">
         <v>1.69172932330827</v>
@@ -1526,7 +1526,7 @@
         <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>15</v>
+        <v>20.25</v>
       </c>
       <c r="Q19" t="n">
         <v>0.880952380952381</v>
@@ -1579,7 +1579,7 @@
         <v>19</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>8.69</v>
       </c>
       <c r="Q21" t="n">
         <v>0.181818181818182</v>
@@ -1685,7 +1685,7 @@
         <v>19</v>
       </c>
       <c r="P22" t="n">
-        <v>6</v>
+        <v>9.44</v>
       </c>
       <c r="Q22" t="n">
         <v>0.222222222222222</v>
@@ -1738,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>10.96</v>
       </c>
       <c r="Q23" t="n">
         <v>0.818181818181818</v>
@@ -1791,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="Q24" t="n">
         <v>0.666666666666667</v>
@@ -1844,7 +1844,7 @@
         <v>19</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5.57</v>
       </c>
       <c r="Q25" t="n">
         <v>0.388888888888889</v>
@@ -1897,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Q26" t="n">
         <v>0.384615384615385</v>
@@ -1942,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.0799999999999998</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>19</v>
       </c>
       <c r="P28" t="n">
-        <v>11</v>
+        <v>19.88</v>
       </c>
       <c r="Q28" t="n">
         <v>1.24871794871795</v>
@@ -2048,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>23.18</v>
       </c>
       <c r="Q29" t="n">
         <v>0.282741738066095</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>5.63</v>
       </c>
       <c r="Q30" t="n">
         <v>0.9</v>
@@ -2154,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Q31" t="n">
         <v>0.857142857142857</v>
@@ -2207,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>7.44</v>
       </c>
       <c r="Q32" t="n">
         <v>0.125</v>
@@ -2260,7 +2260,7 @@
         <v>19</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="Q33" t="n">
         <v>2.5</v>
@@ -2309,7 +2309,7 @@
         <v>19</v>
       </c>
       <c r="P34" t="n">
-        <v>7</v>
+        <v>11.21</v>
       </c>
       <c r="Q34" t="n">
         <v>0.5</v>
@@ -2362,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="P35" t="n">
-        <v>12</v>
+        <v>17.22</v>
       </c>
       <c r="Q35" t="n">
         <v>0.805668016194332</v>
@@ -2415,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="P36" t="n">
-        <v>12</v>
+        <v>21.89</v>
       </c>
       <c r="Q36" t="n">
         <v>0.390492359932088</v>
@@ -2468,7 +2468,7 @@
         <v>19</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>5.79</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>9.95</v>
       </c>
       <c r="Q38" t="n">
         <v>0.451690821256039</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="P39" t="n">
-        <v>24</v>
+        <v>37.07</v>
       </c>
       <c r="Q39" t="n">
         <v>0.768181818181818</v>
@@ -2627,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>8.17</v>
       </c>
       <c r="Q40" t="n">
         <v>0.285714285714286</v>
@@ -2680,7 +2680,7 @@
         <v>19</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0.789999999999999</v>
       </c>
       <c r="Q41" t="n">
         <v>0.245454545454546</v>
@@ -2733,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>9.18</v>
       </c>
       <c r="Q42" t="n">
         <v>0.333333333333333</v>
@@ -2786,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>6.02</v>
       </c>
       <c r="Q43" t="n">
         <v>0.9</v>
@@ -2839,7 +2839,7 @@
         <v>19</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>10.36</v>
       </c>
       <c r="Q44" t="n">
         <v>0.597826086956522</v>
